--- a/2020/cursos/geometria/sexto/Actividades/20200612 Quizizz - Geometria 6-1 quiz de angulos.xlsx
+++ b/2020/cursos/geometria/sexto/Actividades/20200612 Quizizz - Geometria 6-1 quiz de angulos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\Actividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473B8CE-3537-4EAD-BA93-9BD89B93BCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E480387-2C2C-4BB1-BBF5-80AEF6A34017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1935" windowWidth="14400" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class Level" sheetId="1" r:id="rId1"/>
@@ -1024,6 +1024,18 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,18 +1052,6 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,154 +1381,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
     </row>
     <row r="2" spans="1:44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
     </row>
     <row r="4" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
     </row>
     <row r="5" spans="1:44" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4542,9 +4542,9 @@
       <c r="A30" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -4574,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,100 +4587,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
     </row>
     <row r="2" spans="1:44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
     </row>
     <row r="4" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -4709,7 +4709,7 @@
       <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="20" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -4717,7 +4717,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -4785,7 +4785,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -4819,7 +4819,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4853,7 +4853,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -4870,7 +4870,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4887,7 +4887,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -4904,7 +4904,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -4921,7 +4921,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -4938,7 +4938,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -4955,7 +4955,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -4972,7 +4972,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -4989,7 +4989,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -5006,7 +5006,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -5023,7 +5023,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -5057,7 +5057,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -5074,7 +5074,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -5091,7 +5091,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -5108,7 +5108,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -5125,7 +5125,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -5142,7 +5142,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -5159,7 +5159,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -5193,7 +5193,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -5210,7 +5210,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -5244,7 +5244,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -5261,7 +5261,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -5329,7 +5329,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -5346,7 +5346,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -5363,10 +5363,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
